--- a/SolvencyII.UI/SolvencyII.ExcelImportExportLib/ExcelTemplates/BusinessTemplates/qes_quarterly_ecb_reporting_solo.xlsx
+++ b/SolvencyII.UI/SolvencyII.ExcelImportExportLib/ExcelTemplates/BusinessTemplates/qes_quarterly_ecb_reporting_solo.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremi Kiraga\Desktop\business\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremi Kiraga\Desktop\ExcelGenCmd\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="7245"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="8550"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="3" r:id="rId1"/>
@@ -121,7 +121,7 @@
     <definedName name="SE.06.02.16.02.TD" localSheetId="28">SE.06.02.16.02!$B$6:$Y$6</definedName>
     <definedName name="Version" localSheetId="0">Info!$B$2:$C$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -310,7 +310,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>Ver:2016.02.29</t>
+    <t>Ver:2016.04.18</t>
   </si>
   <si>
     <t>Back to TOC</t>
@@ -7119,7 +7119,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -7127,6 +7127,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7135,6 +7136,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7143,6 +7145,7 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7150,6 +7153,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -7649,9 +7653,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -7701,9 +7705,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -7906,9 +7910,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="50.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -7956,13 +7960,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="35" customWidth="1"/>
-    <col min="3" max="7" width="20.5703125" style="24" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" style="15" customWidth="1"/>
-    <col min="9" max="10" width="20.5703125" style="24" customWidth="1"/>
-    <col min="11" max="13" width="20.5703125" style="15" customWidth="1"/>
-    <col min="14" max="14" width="20.5703125" style="33" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="35" customWidth="1"/>
+    <col min="3" max="7" width="20.7109375" style="24" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="15" customWidth="1"/>
+    <col min="9" max="10" width="20.7109375" style="24" customWidth="1"/>
+    <col min="11" max="13" width="20.7109375" style="15" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" style="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
@@ -8168,9 +8172,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="19" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="19" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.25">
@@ -8231,7 +8235,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="36"/>
       <c r="D6" s="75"/>
@@ -9107,9 +9111,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="20" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="20" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.25">
@@ -11015,9 +11019,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="8" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="8" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -11951,9 +11955,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -12145,9 +12149,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -12223,9 +12227,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -12591,9 +12595,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -12667,9 +12671,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -12808,9 +12812,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -12957,9 +12961,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="70.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -13336,9 +13340,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -13444,9 +13448,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="7" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="7" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -14000,9 +14004,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -14099,9 +14103,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="7" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="7" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -14296,9 +14300,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -14450,9 +14454,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -14647,9 +14651,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -14873,9 +14877,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -16466,16 +16470,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="23" customWidth="1"/>
-    <col min="3" max="5" width="20.5703125" style="24" customWidth="1"/>
-    <col min="6" max="9" width="20.5703125" style="15" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" style="24" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" style="25" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" style="16" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" style="15" customWidth="1"/>
-    <col min="14" max="16" width="20.5703125" style="16" customWidth="1"/>
-    <col min="17" max="17" width="20.5703125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="23" customWidth="1"/>
+    <col min="3" max="5" width="20.7109375" style="24" customWidth="1"/>
+    <col min="6" max="9" width="20.7109375" style="15" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="24" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="25" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="16" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="15" customWidth="1"/>
+    <col min="14" max="16" width="20.7109375" style="16" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.25">
@@ -16738,23 +16742,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="35" customWidth="1"/>
-    <col min="3" max="5" width="20.5703125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="15" customWidth="1"/>
-    <col min="7" max="8" width="20.5703125" style="24" customWidth="1"/>
-    <col min="9" max="10" width="20.5703125" style="15" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" style="24" customWidth="1"/>
-    <col min="12" max="13" width="20.5703125" style="15" customWidth="1"/>
-    <col min="14" max="15" width="20.5703125" style="24" customWidth="1"/>
-    <col min="16" max="16" width="20.5703125" style="15" customWidth="1"/>
-    <col min="17" max="17" width="20.5703125" style="24" customWidth="1"/>
-    <col min="18" max="18" width="20.5703125" style="25" customWidth="1"/>
-    <col min="19" max="19" width="20.5703125" style="16" customWidth="1"/>
-    <col min="20" max="20" width="20.5703125" style="26" customWidth="1"/>
-    <col min="21" max="21" width="20.5703125" style="27" customWidth="1"/>
-    <col min="22" max="24" width="20.5703125" style="15" customWidth="1"/>
-    <col min="25" max="25" width="20.5703125" style="33" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="35" customWidth="1"/>
+    <col min="3" max="5" width="20.7109375" style="24" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="15" customWidth="1"/>
+    <col min="7" max="8" width="20.7109375" style="24" customWidth="1"/>
+    <col min="9" max="10" width="20.7109375" style="15" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="24" customWidth="1"/>
+    <col min="12" max="13" width="20.7109375" style="15" customWidth="1"/>
+    <col min="14" max="15" width="20.7109375" style="24" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" style="15" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" style="24" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" style="25" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="16" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="26" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" style="27" customWidth="1"/>
+    <col min="22" max="24" width="20.7109375" style="15" customWidth="1"/>
+    <col min="25" max="25" width="20.7109375" style="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:25" x14ac:dyDescent="0.25">
@@ -17107,9 +17111,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -17375,11 +17379,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="23" customWidth="1"/>
-    <col min="3" max="4" width="20.5703125" style="15" customWidth="1"/>
-    <col min="5" max="6" width="20.5703125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="23" customWidth="1"/>
+    <col min="3" max="4" width="20.7109375" style="15" customWidth="1"/>
+    <col min="5" max="6" width="20.7109375" style="16" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -17501,7 +17505,7 @@
     <hyperlink ref="B1" location="'Table of contents'!A1" tooltip="Click to navigate Table of contents" display="Back to TOC"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -27754,9 +27758,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="20" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="20" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.25">
@@ -29726,9 +29730,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="12" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="12" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
@@ -30650,11 +30654,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="24" customWidth="1"/>
-    <col min="4" max="6" width="20.5703125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="23" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="24" customWidth="1"/>
+    <col min="4" max="6" width="20.7109375" style="15" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -30787,20 +30791,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="23" customWidth="1"/>
-    <col min="3" max="5" width="20.5703125" style="24" customWidth="1"/>
-    <col min="6" max="8" width="20.5703125" style="15" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" style="25" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" style="16" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" style="15" customWidth="1"/>
-    <col min="12" max="13" width="20.5703125" style="16" customWidth="1"/>
-    <col min="14" max="15" width="20.5703125" style="14" customWidth="1"/>
-    <col min="16" max="18" width="20.5703125" style="16" customWidth="1"/>
-    <col min="19" max="19" width="20.5703125" style="27" customWidth="1"/>
-    <col min="20" max="20" width="20.5703125" style="25" customWidth="1"/>
-    <col min="21" max="21" width="20.5703125" style="16" customWidth="1"/>
-    <col min="22" max="22" width="20.5703125" style="52" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="23" customWidth="1"/>
+    <col min="3" max="5" width="20.7109375" style="24" customWidth="1"/>
+    <col min="6" max="8" width="20.7109375" style="15" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="25" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="16" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="15" customWidth="1"/>
+    <col min="12" max="13" width="20.7109375" style="16" customWidth="1"/>
+    <col min="14" max="15" width="20.7109375" style="14" customWidth="1"/>
+    <col min="16" max="18" width="20.7109375" style="16" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="27" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="25" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" style="16" customWidth="1"/>
+    <col min="22" max="22" width="20.7109375" style="52" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:22" x14ac:dyDescent="0.25">
@@ -31137,15 +31141,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="35" customWidth="1"/>
-    <col min="3" max="6" width="20.5703125" style="24" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" style="15" customWidth="1"/>
-    <col min="8" max="11" width="20.5703125" style="24" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" style="15" customWidth="1"/>
-    <col min="13" max="14" width="20.5703125" style="24" customWidth="1"/>
-    <col min="15" max="17" width="20.5703125" style="15" customWidth="1"/>
-    <col min="18" max="18" width="20.5703125" style="33" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="35" customWidth="1"/>
+    <col min="3" max="6" width="20.7109375" style="24" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="15" customWidth="1"/>
+    <col min="8" max="11" width="20.7109375" style="24" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="15" customWidth="1"/>
+    <col min="13" max="14" width="20.7109375" style="24" customWidth="1"/>
+    <col min="15" max="17" width="20.7109375" style="15" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" style="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.25">
@@ -31398,17 +31402,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="23" customWidth="1"/>
-    <col min="3" max="5" width="20.5703125" style="24" customWidth="1"/>
-    <col min="6" max="8" width="20.5703125" style="15" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" style="16" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" style="15" customWidth="1"/>
-    <col min="11" max="13" width="20.5703125" style="16" customWidth="1"/>
-    <col min="14" max="15" width="20.5703125" style="14" customWidth="1"/>
-    <col min="16" max="18" width="20.5703125" style="16" customWidth="1"/>
-    <col min="19" max="19" width="20.5703125" style="27" customWidth="1"/>
-    <col min="20" max="20" width="20.5703125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="23" customWidth="1"/>
+    <col min="3" max="5" width="20.7109375" style="24" customWidth="1"/>
+    <col min="6" max="8" width="20.7109375" style="15" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="16" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="15" customWidth="1"/>
+    <col min="11" max="13" width="20.7109375" style="16" customWidth="1"/>
+    <col min="14" max="15" width="20.7109375" style="14" customWidth="1"/>
+    <col min="16" max="18" width="20.7109375" style="16" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="27" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.25">
